--- a/GATEWAY/A1#111DEDALUS0000/dedalus/caleido_fse20_connector/2023/accreditamento-checklist_V7.1.1.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/dedalus/caleido_fse20_connector/2023/accreditamento-checklist_V7.1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia.trama\OneDrive - Dedalus S.p.A\Documenti\PROGETTI\FSE\2.0\accreditamento\TEST CALEIDO\Versione2\LAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096456E7-8854-4C8B-93F6-47DEA32A8FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19402C9-B961-4960-9CC2-5C284609C573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="371" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,15 +370,6 @@
 </t>
   </si>
   <si>
-    <t>2023-03-09T15:13:12Z</t>
-  </si>
-  <si>
-    <t>5ecbff586f0e678e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.3.8.b97a980e3d2abd1ae5ea7adeb26c8b6a9d2285f2d80696bd30c8680f814045f6.b792b7ae15^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT5</t>
   </si>
   <si>
@@ -1097,6 +1088,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.4.3.8.e9d11825f6a5a1576411b120a7de5e89a8aff98319771f1adfca14d087886e43.9e250fade4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-10T10:10:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.3.8.4f24a86f403b3ef487a27d57d0158c1eb3a6f094710e95729f384078f6cf7097.1b72f249de^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>618eab7d5b84b2f5</t>
   </si>
 </sst>
 </file>
@@ -3051,10 +3051,10 @@
   <dimension ref="A1:T850"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3327,13 +3327,13 @@
         <v>44994</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>50</v>
@@ -3459,13 +3459,13 @@
         <v>44994</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>65</v>
+        <v>248</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>50</v>
@@ -3494,22 +3494,22 @@
         <v>44</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F14" s="17">
         <v>44994</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>50</v>
@@ -3535,25 +3535,25 @@
         <v>43</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F15" s="36">
         <v>44985</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J15" s="39" t="s">
         <v>50</v>
@@ -3579,23 +3579,23 @@
         <v>43</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
@@ -3617,23 +3617,23 @@
         <v>43</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
@@ -3654,23 +3654,23 @@
         <v>43</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
@@ -3695,22 +3695,22 @@
         <v>44</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F19" s="33">
         <v>44981</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>50</v>
@@ -3723,19 +3723,19 @@
         <v>50</v>
       </c>
       <c r="N19" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
       <c r="S19" s="21"/>
       <c r="T19" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="130.19999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3746,25 +3746,25 @@
         <v>43</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F20" s="17">
         <v>44981</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>50</v>
@@ -3777,19 +3777,19 @@
         <v>50</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20"/>
       <c r="S20" s="21"/>
       <c r="T20" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -3803,22 +3803,22 @@
         <v>44</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F21" s="33">
         <v>44981</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>50</v>
@@ -3831,19 +3831,19 @@
         <v>50</v>
       </c>
       <c r="N21" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
       <c r="S21" s="21"/>
       <c r="T21" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="144.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3854,25 +3854,25 @@
         <v>43</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F22" s="17">
         <v>44981</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>50</v>
@@ -3885,19 +3885,19 @@
         <v>50</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
       <c r="S22" s="21"/>
       <c r="T22" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3911,10 +3911,10 @@
         <v>44</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
@@ -3927,7 +3927,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="P23" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20" t="s">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="S23" s="21"/>
       <c r="T23" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="43.8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3946,13 +3946,13 @@
         <v>43</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="18"/>
@@ -3965,7 +3965,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="20" t="s">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="S24" s="21"/>
       <c r="T24" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -3987,20 +3987,20 @@
         <v>44</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
@@ -4011,7 +4011,7 @@
       <c r="R25" s="20"/>
       <c r="S25" s="21"/>
       <c r="T25" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4025,20 +4025,20 @@
         <v>44</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
@@ -4049,7 +4049,7 @@
       <c r="R26" s="20"/>
       <c r="S26" s="21"/>
       <c r="T26" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -4063,20 +4063,20 @@
         <v>44</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -4087,7 +4087,7 @@
       <c r="R27" s="20"/>
       <c r="S27" s="21"/>
       <c r="T27" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4101,20 +4101,20 @@
         <v>44</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
@@ -4124,10 +4124,10 @@
       <c r="Q28" s="19"/>
       <c r="R28" s="20"/>
       <c r="S28" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4141,20 +4141,20 @@
         <v>44</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
@@ -4164,10 +4164,10 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="20"/>
       <c r="S29" s="21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4181,47 +4181,47 @@
         <v>44</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F30" s="17">
         <v>44994</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J30" s="19" t="s">
         <v>50</v>
       </c>
       <c r="K30" s="19"/>
       <c r="L30" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M30" s="19" t="s">
         <v>50</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="20"/>
       <c r="S30" s="21"/>
       <c r="T30" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4235,47 +4235,47 @@
         <v>44</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F31" s="17">
         <v>44994</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J31" s="19" t="s">
         <v>50</v>
       </c>
       <c r="K31" s="19"/>
       <c r="L31" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M31" s="19" t="s">
         <v>50</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="20"/>
       <c r="S31" s="21"/>
       <c r="T31" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4289,20 +4289,20 @@
         <v>44</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
@@ -4313,7 +4313,7 @@
       <c r="R32" s="20"/>
       <c r="S32" s="21"/>
       <c r="T32" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4327,20 +4327,20 @@
         <v>44</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
@@ -4351,7 +4351,7 @@
       <c r="R33" s="20"/>
       <c r="S33" s="21"/>
       <c r="T33" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4365,20 +4365,20 @@
         <v>44</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
@@ -4388,10 +4388,10 @@
       <c r="Q34" s="19"/>
       <c r="R34" s="20"/>
       <c r="S34" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="T34" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4405,20 +4405,20 @@
         <v>44</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
       <c r="J35" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
@@ -4428,10 +4428,10 @@
       <c r="Q35" s="19"/>
       <c r="R35" s="20"/>
       <c r="S35" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="T35" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
@@ -4442,23 +4442,23 @@
         <v>43</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
       <c r="J36" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
@@ -4469,7 +4469,7 @@
       <c r="R36" s="20"/>
       <c r="S36" s="21"/>
       <c r="T36" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4480,23 +4480,23 @@
         <v>43</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
       <c r="J37" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
@@ -4507,7 +4507,7 @@
       <c r="R37" s="20"/>
       <c r="S37" s="21"/>
       <c r="T37" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
@@ -4518,23 +4518,23 @@
         <v>43</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
       <c r="J38" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
@@ -4545,7 +4545,7 @@
       <c r="R38" s="20"/>
       <c r="S38" s="21"/>
       <c r="T38" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4556,23 +4556,23 @@
         <v>43</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
@@ -4582,10 +4582,10 @@
       <c r="Q39" s="19"/>
       <c r="R39" s="20"/>
       <c r="S39" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T39" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4596,23 +4596,23 @@
         <v>43</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
@@ -4622,10 +4622,10 @@
       <c r="Q40" s="19"/>
       <c r="R40" s="20"/>
       <c r="S40" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="T40" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4636,50 +4636,50 @@
         <v>43</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F41" s="17">
         <v>44981</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J41" s="19" t="s">
         <v>50</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M41" s="19" t="s">
         <v>50</v>
       </c>
       <c r="N41" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O41" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P41" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q41" s="19"/>
       <c r="R41" s="20"/>
       <c r="S41" s="21"/>
       <c r="T41" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4690,23 +4690,23 @@
         <v>43</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
       <c r="J42" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
@@ -4717,7 +4717,7 @@
       <c r="R42" s="20"/>
       <c r="S42" s="21"/>
       <c r="T42" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4728,50 +4728,50 @@
         <v>43</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F43" s="17">
         <v>44981</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J43" s="19" t="s">
         <v>50</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M43" s="19" t="s">
         <v>50</v>
       </c>
       <c r="N43" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O43" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P43" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q43" s="19"/>
       <c r="R43" s="20"/>
       <c r="S43" s="21"/>
       <c r="T43" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4782,23 +4782,23 @@
         <v>43</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
       <c r="J44" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
@@ -4809,7 +4809,7 @@
       <c r="R44" s="20"/>
       <c r="S44" s="21"/>
       <c r="T44" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4820,23 +4820,23 @@
         <v>43</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
       <c r="I45" s="18"/>
       <c r="J45" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
@@ -4847,7 +4847,7 @@
       <c r="R45" s="20"/>
       <c r="S45" s="21"/>
       <c r="T45" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4858,23 +4858,23 @@
         <v>43</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
       <c r="J46" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
@@ -4885,7 +4885,7 @@
       <c r="R46" s="20"/>
       <c r="S46" s="21"/>
       <c r="T46" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4896,23 +4896,23 @@
         <v>43</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="18"/>
       <c r="J47" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
@@ -4923,7 +4923,7 @@
       <c r="R47" s="20"/>
       <c r="S47" s="21"/>
       <c r="T47" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
@@ -4934,23 +4934,23 @@
         <v>43</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
@@ -4961,7 +4961,7 @@
       <c r="R48" s="20"/>
       <c r="S48" s="21"/>
       <c r="T48" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4972,23 +4972,23 @@
         <v>43</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
       <c r="J49" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
@@ -4999,7 +4999,7 @@
       <c r="R49" s="20"/>
       <c r="S49" s="21"/>
       <c r="T49" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5010,23 +5010,23 @@
         <v>43</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="18"/>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
       <c r="J50" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L50" s="19"/>
       <c r="M50" s="19"/>
@@ -5037,7 +5037,7 @@
       <c r="R50" s="20"/>
       <c r="S50" s="21"/>
       <c r="T50" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5048,23 +5048,23 @@
         <v>43</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="18"/>
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
       <c r="J51" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
@@ -5075,7 +5075,7 @@
       <c r="R51" s="20"/>
       <c r="S51" s="21"/>
       <c r="T51" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -5086,23 +5086,23 @@
         <v>43</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
       <c r="J52" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -5113,7 +5113,7 @@
       <c r="R52" s="20"/>
       <c r="S52" s="21"/>
       <c r="T52" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -5124,50 +5124,50 @@
         <v>43</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F53" s="17">
         <v>44981</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J53" s="19" t="s">
         <v>50</v>
       </c>
       <c r="K53" s="19"/>
       <c r="L53" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M53" s="19" t="s">
         <v>50</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P53" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q53" s="19"/>
       <c r="R53" s="20"/>
       <c r="S53" s="21"/>
       <c r="T53" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
@@ -5178,23 +5178,23 @@
         <v>43</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
       <c r="J54" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
@@ -5205,7 +5205,7 @@
       <c r="R54" s="20"/>
       <c r="S54" s="21"/>
       <c r="T54" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="144" x14ac:dyDescent="0.3">
@@ -5219,10 +5219,10 @@
         <v>44</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F55" s="17">
         <v>44994</v>
@@ -18840,10 +18840,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18851,125 +18851,125 @@
         <v>44</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C10" s="23">
         <v>191</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19989,7 +19989,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>50</v>
@@ -19997,10 +19997,10 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -21014,26 +21014,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -21264,26 +21244,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB221413-913B-41FE-97D3-5428BD0403A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21302,6 +21283,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111DEDALUS0000/dedalus/caleido_fse20_connector/2023/accreditamento-checklist_V7.1.1.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/dedalus/caleido_fse20_connector/2023/accreditamento-checklist_V7.1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia.trama\OneDrive - Dedalus S.p.A\Documenti\PROGETTI\FSE\2.0\accreditamento\TEST CALEIDO\Versione 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A740D735-E0E8-459F-AA54-9A593755A7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23E9524-E6E8-44BE-B9D9-FF60CB86EB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="972" windowWidth="22596" windowHeight="11148" tabRatio="207" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="444" yWindow="768" windowWidth="22596" windowHeight="11148" tabRatio="207" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="249">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1088,6 +1088,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.4.3.8.52c6ec5df15550425bc47dcab3f83e8a885842df51838ff2a3338f965cd9f91a.0bda25fddc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-03-28T11:20:05Z</t>
+  </si>
+  <si>
+    <t>249a7475aef0cdac</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.3.8.5345cd66a1c56d61a2d12bc5fc09e41fcc3845815ad2ddefb38d3924cb97039d.fc82b113e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3041,10 +3050,10 @@
   <dimension ref="A1:T850"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5215,16 +5224,16 @@
         <v>198</v>
       </c>
       <c r="F55" s="17">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="J55" s="19" t="s">
         <v>47</v>
@@ -21009,15 +21018,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -21248,6 +21248,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
@@ -21260,14 +21269,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB221413-913B-41FE-97D3-5428BD0403A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21286,6 +21287,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111DEDALUS0000/dedalus/caleido_fse20_connector/2023/accreditamento-checklist_V7.1.1.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/dedalus/caleido_fse20_connector/2023/accreditamento-checklist_V7.1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia.trama\OneDrive - Dedalus S.p.A\Documenti\PROGETTI\FSE\2.0\accreditamento\TEST CALEIDO\Versione 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23E9524-E6E8-44BE-B9D9-FF60CB86EB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CB53D9-A1F1-4F85-9044-EA16301BD160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="768" windowWidth="22596" windowHeight="11148" tabRatio="207" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="444" yWindow="1812" windowWidth="22596" windowHeight="11148" tabRatio="207" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -461,9 +461,6 @@
     <t>Impossibile invocare il servizio di validazione. Consulatre i log per ulteriori dettagli.</t>
   </si>
   <si>
-    <t>Inserire le informazioni richeste come evidenziato nel file di log.</t>
-  </si>
-  <si>
     <t>KO</t>
   </si>
   <si>
@@ -553,9 +550,6 @@
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t>Visualizzazione errore di connessione al servizio all'operatore.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_RAD_TIMEOUT</t>
   </si>
   <si>
@@ -1097,6 +1091,17 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.4.3.8.5345cd66a1c56d61a2d12bc5fc09e41fcc3845815ad2ddefb38d3924cb97039d.fc82b113e5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Nel nostro applicativo è presente una console per l’evidenza degli errori di invio a FSE.
+Un operatore appositamente autorizzato può intervenire per il reinoltro delle richieste.</t>
+  </si>
+  <si>
+    <t>Nel nostro applicativo è presente una console per l’evidenza degli errori di invio a FSE.
+Un operatore appositamente autorizzato può intervenire per la rispedizione dei referti non spediti.
+Può completare o aggiungere dati mancanti se di sua competenza.
+Se necessario può sottoporre nuovamente a firma i referti che lo richiedono. 
+Sarà lui a fornire le indicazioni dei dati mancanti o errati al medico.</t>
   </si>
 </sst>
 </file>
@@ -3050,10 +3055,10 @@
   <dimension ref="A1:T850"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3066,7 +3071,7 @@
     <col min="6" max="9" width="33.33203125" customWidth="1"/>
     <col min="10" max="10" width="27.33203125" customWidth="1"/>
     <col min="11" max="15" width="36.44140625" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" customWidth="1"/>
+    <col min="16" max="16" width="33" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="33.33203125" customWidth="1"/>
     <col min="18" max="18" width="36.44140625" customWidth="1"/>
     <col min="19" max="19" width="31.6640625" customWidth="1"/>
@@ -3326,13 +3331,13 @@
         <v>45012</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H10" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>231</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>47</v>
@@ -3370,13 +3375,13 @@
         <v>45012</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>47</v>
@@ -3414,13 +3419,13 @@
         <v>45012</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>47</v>
@@ -3458,13 +3463,13 @@
         <v>45012</v>
       </c>
       <c r="G13" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>240</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>242</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>47</v>
@@ -3502,13 +3507,13 @@
         <v>45012</v>
       </c>
       <c r="G14" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>243</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>245</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>47</v>
@@ -3546,13 +3551,13 @@
         <v>45012</v>
       </c>
       <c r="G15" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="38" t="s">
         <v>228</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>230</v>
       </c>
       <c r="J15" s="39" t="s">
         <v>47</v>
@@ -3683,7 +3688,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>28</v>
       </c>
@@ -3728,16 +3733,16 @@
         <v>62</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
       <c r="S19" s="21"/>
       <c r="T19" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>31</v>
       </c>
@@ -3748,7 +3753,7 @@
         <v>57</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="31" t="s">
         <v>70</v>
@@ -3757,10 +3762,10 @@
         <v>44981</v>
       </c>
       <c r="G20" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>73</v>
@@ -3782,16 +3787,16 @@
         <v>62</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20"/>
       <c r="S20" s="21"/>
       <c r="T20" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>36</v>
       </c>
@@ -3802,22 +3807,22 @@
         <v>44</v>
       </c>
       <c r="D21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>80</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>81</v>
       </c>
       <c r="F21" s="33">
         <v>44981</v>
       </c>
       <c r="G21" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="I21" s="32" t="s">
         <v>83</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>84</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>47</v>
@@ -3836,16 +3841,16 @@
         <v>62</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="Q21" s="19"/>
       <c r="R21" s="20"/>
       <c r="S21" s="21"/>
       <c r="T21" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>39</v>
       </c>
@@ -3856,22 +3861,22 @@
         <v>57</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="17">
         <v>44981</v>
       </c>
       <c r="G22" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="I22" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>47</v>
@@ -3890,16 +3895,16 @@
         <v>62</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="Q22" s="19"/>
       <c r="R22" s="20"/>
       <c r="S22" s="21"/>
       <c r="T22" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>44</v>
       </c>
@@ -3910,10 +3915,10 @@
         <v>44</v>
       </c>
       <c r="D23" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>90</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
@@ -3926,7 +3931,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="P23" s="19" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20" t="s">
@@ -3934,10 +3939,10 @@
       </c>
       <c r="S23" s="21"/>
       <c r="T23" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>47</v>
       </c>
@@ -3948,10 +3953,10 @@
         <v>57</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="18"/>
@@ -3964,7 +3969,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="19" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="Q24" s="19"/>
       <c r="R24" s="20" t="s">
@@ -3972,10 +3977,10 @@
       </c>
       <c r="S24" s="21"/>
       <c r="T24" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>52</v>
       </c>
@@ -3986,10 +3991,10 @@
         <v>44</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
@@ -3999,7 +4004,7 @@
         <v>62</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
@@ -4010,7 +4015,7 @@
       <c r="R25" s="20"/>
       <c r="S25" s="21"/>
       <c r="T25" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4024,10 +4029,10 @@
         <v>44</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
@@ -4037,7 +4042,7 @@
         <v>62</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
@@ -4048,7 +4053,7 @@
       <c r="R26" s="20"/>
       <c r="S26" s="21"/>
       <c r="T26" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -4062,10 +4067,10 @@
         <v>44</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
@@ -4075,7 +4080,7 @@
         <v>62</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -4086,7 +4091,7 @@
       <c r="R27" s="20"/>
       <c r="S27" s="21"/>
       <c r="T27" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4100,10 +4105,10 @@
         <v>44</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
@@ -4113,7 +4118,7 @@
         <v>62</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
@@ -4123,10 +4128,10 @@
       <c r="Q28" s="19"/>
       <c r="R28" s="20"/>
       <c r="S28" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4140,10 +4145,10 @@
         <v>44</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="18"/>
@@ -4153,7 +4158,7 @@
         <v>62</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
@@ -4163,10 +4168,10 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="20"/>
       <c r="S29" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4180,22 +4185,22 @@
         <v>44</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F30" s="17">
         <v>44994</v>
       </c>
       <c r="G30" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="J30" s="19" t="s">
         <v>47</v>
@@ -4208,19 +4213,19 @@
         <v>47</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O30" s="19" t="s">
         <v>62</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="20"/>
       <c r="S30" s="21"/>
       <c r="T30" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4234,22 +4239,22 @@
         <v>44</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F31" s="17">
         <v>44994</v>
       </c>
       <c r="G31" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="J31" s="19" t="s">
         <v>47</v>
@@ -4262,19 +4267,19 @@
         <v>47</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O31" s="19" t="s">
         <v>62</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="20"/>
       <c r="S31" s="21"/>
       <c r="T31" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4288,10 +4293,10 @@
         <v>44</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
@@ -4301,7 +4306,7 @@
         <v>62</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
@@ -4312,7 +4317,7 @@
       <c r="R32" s="20"/>
       <c r="S32" s="21"/>
       <c r="T32" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4326,10 +4331,10 @@
         <v>44</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
@@ -4339,7 +4344,7 @@
         <v>62</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
@@ -4350,7 +4355,7 @@
       <c r="R33" s="20"/>
       <c r="S33" s="21"/>
       <c r="T33" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4364,10 +4369,10 @@
         <v>44</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
@@ -4377,7 +4382,7 @@
         <v>62</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
@@ -4387,10 +4392,10 @@
       <c r="Q34" s="19"/>
       <c r="R34" s="20"/>
       <c r="S34" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T34" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -4404,10 +4409,10 @@
         <v>44</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
@@ -4417,7 +4422,7 @@
         <v>62</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
@@ -4427,10 +4432,10 @@
       <c r="Q35" s="19"/>
       <c r="R35" s="20"/>
       <c r="S35" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T35" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -4444,10 +4449,10 @@
         <v>57</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="18"/>
@@ -4457,7 +4462,7 @@
         <v>62</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
@@ -4468,7 +4473,7 @@
       <c r="R36" s="20"/>
       <c r="S36" s="21"/>
       <c r="T36" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4482,10 +4487,10 @@
         <v>57</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="18"/>
@@ -4495,7 +4500,7 @@
         <v>62</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
@@ -4506,7 +4511,7 @@
       <c r="R37" s="20"/>
       <c r="S37" s="21"/>
       <c r="T37" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -4520,10 +4525,10 @@
         <v>57</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="18"/>
@@ -4533,7 +4538,7 @@
         <v>62</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
@@ -4544,7 +4549,7 @@
       <c r="R38" s="20"/>
       <c r="S38" s="21"/>
       <c r="T38" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4558,10 +4563,10 @@
         <v>57</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="18"/>
@@ -4571,7 +4576,7 @@
         <v>62</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
@@ -4581,10 +4586,10 @@
       <c r="Q39" s="19"/>
       <c r="R39" s="20"/>
       <c r="S39" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T39" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4598,10 +4603,10 @@
         <v>57</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="18"/>
@@ -4611,7 +4616,7 @@
         <v>62</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
@@ -4621,10 +4626,10 @@
       <c r="Q40" s="19"/>
       <c r="R40" s="20"/>
       <c r="S40" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T40" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4638,22 +4643,22 @@
         <v>57</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F41" s="17">
         <v>44981</v>
       </c>
       <c r="G41" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>154</v>
       </c>
       <c r="J41" s="19" t="s">
         <v>47</v>
@@ -4666,19 +4671,19 @@
         <v>47</v>
       </c>
       <c r="N41" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O41" s="19" t="s">
         <v>62</v>
       </c>
       <c r="P41" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q41" s="19"/>
       <c r="R41" s="20"/>
       <c r="S41" s="21"/>
       <c r="T41" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4692,10 +4697,10 @@
         <v>57</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="18"/>
@@ -4705,7 +4710,7 @@
         <v>62</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
@@ -4716,7 +4721,7 @@
       <c r="R42" s="20"/>
       <c r="S42" s="21"/>
       <c r="T42" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4730,22 +4735,22 @@
         <v>57</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F43" s="17">
         <v>44981</v>
       </c>
       <c r="G43" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="I43" s="18" t="s">
         <v>160</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>162</v>
       </c>
       <c r="J43" s="19" t="s">
         <v>47</v>
@@ -4758,19 +4763,19 @@
         <v>47</v>
       </c>
       <c r="N43" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O43" s="19" t="s">
         <v>62</v>
       </c>
       <c r="P43" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q43" s="19"/>
       <c r="R43" s="20"/>
       <c r="S43" s="21"/>
       <c r="T43" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4784,10 +4789,10 @@
         <v>57</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="18"/>
@@ -4797,7 +4802,7 @@
         <v>62</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
@@ -4808,7 +4813,7 @@
       <c r="R44" s="20"/>
       <c r="S44" s="21"/>
       <c r="T44" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4822,10 +4827,10 @@
         <v>57</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="18"/>
@@ -4835,7 +4840,7 @@
         <v>62</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
@@ -4846,7 +4851,7 @@
       <c r="R45" s="20"/>
       <c r="S45" s="21"/>
       <c r="T45" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4860,10 +4865,10 @@
         <v>57</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="18"/>
@@ -4873,7 +4878,7 @@
         <v>62</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
@@ -4884,7 +4889,7 @@
       <c r="R46" s="20"/>
       <c r="S46" s="21"/>
       <c r="T46" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4898,10 +4903,10 @@
         <v>57</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="18"/>
@@ -4911,7 +4916,7 @@
         <v>62</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
@@ -4922,7 +4927,7 @@
       <c r="R47" s="20"/>
       <c r="S47" s="21"/>
       <c r="T47" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
@@ -4936,10 +4941,10 @@
         <v>57</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="18"/>
@@ -4949,7 +4954,7 @@
         <v>62</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
@@ -4960,7 +4965,7 @@
       <c r="R48" s="20"/>
       <c r="S48" s="21"/>
       <c r="T48" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -4974,10 +4979,10 @@
         <v>57</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F49" s="17"/>
       <c r="G49" s="18"/>
@@ -4987,7 +4992,7 @@
         <v>62</v>
       </c>
       <c r="K49" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
@@ -4998,7 +5003,7 @@
       <c r="R49" s="20"/>
       <c r="S49" s="21"/>
       <c r="T49" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5012,10 +5017,10 @@
         <v>57</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F50" s="17"/>
       <c r="G50" s="18"/>
@@ -5025,7 +5030,7 @@
         <v>62</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L50" s="19"/>
       <c r="M50" s="19"/>
@@ -5036,7 +5041,7 @@
       <c r="R50" s="20"/>
       <c r="S50" s="21"/>
       <c r="T50" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5050,10 +5055,10 @@
         <v>57</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F51" s="17"/>
       <c r="G51" s="18"/>
@@ -5063,7 +5068,7 @@
         <v>62</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
@@ -5074,7 +5079,7 @@
       <c r="R51" s="20"/>
       <c r="S51" s="21"/>
       <c r="T51" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5088,10 +5093,10 @@
         <v>57</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="18"/>
@@ -5101,7 +5106,7 @@
         <v>62</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
@@ -5112,7 +5117,7 @@
       <c r="R52" s="20"/>
       <c r="S52" s="21"/>
       <c r="T52" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5126,22 +5131,22 @@
         <v>57</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F53" s="17">
         <v>44981</v>
       </c>
       <c r="G53" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="I53" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>193</v>
       </c>
       <c r="J53" s="19" t="s">
         <v>47</v>
@@ -5154,19 +5159,19 @@
         <v>47</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O53" s="19" t="s">
         <v>62</v>
       </c>
       <c r="P53" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Q53" s="19"/>
       <c r="R53" s="20"/>
       <c r="S53" s="21"/>
       <c r="T53" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5180,10 +5185,10 @@
         <v>57</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="18"/>
@@ -5193,7 +5198,7 @@
         <v>62</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
@@ -5204,7 +5209,7 @@
       <c r="R54" s="20"/>
       <c r="S54" s="21"/>
       <c r="T54" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="144" x14ac:dyDescent="0.3">
@@ -5218,22 +5223,22 @@
         <v>44</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F55" s="17">
         <v>45013</v>
       </c>
       <c r="G55" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="I55" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>248</v>
       </c>
       <c r="J55" s="19" t="s">
         <v>47</v>
@@ -18833,10 +18838,10 @@
         <v>24</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18844,27 +18849,27 @@
         <v>44</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>201</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>204</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18872,97 +18877,97 @@
         <v>57</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>209</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>212</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>215</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>218</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>221</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C10" s="23">
         <v>191</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19982,7 +19987,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>47</v>
@@ -19990,7 +19995,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>62</v>
